--- a/TNR_JDD/MP/JDD.MP.CPT.xlsx
+++ b/TNR_JDD/MP/JDD.MP.CPT.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mjuffHBHmfDr6xIzAF1ObprpeNMeg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mhYT6Q1qek/EM3fXrDXjbWuhQy83w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="130">
   <si>
     <t>Date</t>
   </si>
@@ -390,34 +390,67 @@
     </r>
   </si>
   <si>
-    <t>EXEMPLES</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
-    <t>a_Fournisseur</t>
-  </si>
-  <si>
-    <t>$TAB$ID_CODFOU</t>
-  </si>
-  <si>
-    <t>a_FournisseurSelected</t>
-  </si>
-  <si>
-    <t>$TABSELECTED$ID_CODFOU</t>
-  </si>
-  <si>
-    <t>input_Filtre_Grille</t>
-  </si>
-  <si>
-    <t>$FILTREGRILLE$ID_CODFOU</t>
-  </si>
-  <si>
-    <t>td_Grille</t>
-  </si>
-  <si>
-    <t>$TDGRILLE$ID_CODFOU</t>
+    <t>tab_Compteur</t>
+  </si>
+  <si>
+    <t>$TAB$CPT</t>
+  </si>
+  <si>
+    <t>tab_CompteurSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$CPT</t>
+  </si>
+  <si>
+    <t>tab_Equipement</t>
+  </si>
+  <si>
+    <t>$TAB$EQU</t>
+  </si>
+  <si>
+    <t>tab_EquipementSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$EQU</t>
+  </si>
+  <si>
+    <t>tab_Matricule</t>
+  </si>
+  <si>
+    <t>$TAB$MAT</t>
+  </si>
+  <si>
+    <t>tab_MatriculeSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$MAT</t>
+  </si>
+  <si>
+    <t>tab_Historique</t>
+  </si>
+  <si>
+    <t>$TAB$HISTO</t>
+  </si>
+  <si>
+    <t>tab_HistoriqueSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$HISTO</t>
+  </si>
+  <si>
+    <t>tab_CompteurAux</t>
+  </si>
+  <si>
+    <t>$TAB$comaux</t>
+  </si>
+  <si>
+    <t>tab_CompteurAuxSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$comaux</t>
   </si>
   <si>
     <t>Champ</t>
@@ -431,7 +464,7 @@
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -508,8 +541,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,12 +632,6 @@
         <bgColor rgb="FFA7E3B7"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFC000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border/>
@@ -638,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -745,9 +777,10 @@
     </xf>
     <xf borderId="3" fillId="13" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="3" fillId="14" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="15" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -6875,60 +6908,116 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1"/>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="42" t="s">
         <v>108</v>
       </c>
+      <c r="B4" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="43" t="s">
-        <v>109</v>
+      <c r="A5" s="42" t="s">
+        <v>108</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>109</v>
+      <c r="A6" s="42" t="s">
+        <v>108</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="44" t="s">
-        <v>20</v>
+      <c r="A7" s="42" t="s">
+        <v>108</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="44" t="s">
-        <v>20</v>
+      <c r="A8" s="42" t="s">
+        <v>108</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="12" ht="12.75" customHeight="1"/>
     <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1"/>
@@ -7909,15 +7998,6 @@
     <row r="989" ht="12.75" customHeight="1"/>
     <row r="990" ht="12.75" customHeight="1"/>
     <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -7950,7 +8030,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
